--- a/thresholds/IGCSE/enterprise/enterprise-thresholds.xlsx
+++ b/thresholds/IGCSE/enterprise/enterprise-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,77 +698,77 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C7" t="n">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="D7" t="n">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="E7" t="n">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="F7" t="n">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="G7" t="n">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="H7" t="n">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="I7" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12</t>
+          <t>AX 02,11</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>200</v>
       </c>
       <c r="C8" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D8" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F8" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G8" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H8" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I8" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -780,36 +780,36 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13</t>
+          <t>AY 02,12</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>200</v>
       </c>
       <c r="C9" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D9" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G9" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H9" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I9" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -821,36 +821,36 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>BY 12,82</t>
+          <t>AZ 02,13</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>200</v>
       </c>
       <c r="C10" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D10" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E10" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F10" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G10" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H10" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I10" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -862,36 +862,36 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>BZ 13,82</t>
+          <t>BY 12,82</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>200</v>
       </c>
       <c r="C11" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G11" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H11" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I11" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -903,77 +903,77 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11</t>
+          <t>BZ 13,82</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>200</v>
       </c>
       <c r="C12" t="n">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D12" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E12" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F12" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G12" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H12" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I12" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12</t>
+          <t>AX 02,11</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>200</v>
       </c>
       <c r="C13" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" t="n">
         <v>125</v>
       </c>
       <c r="E13" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F13" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G13" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H13" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I13" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -985,36 +985,36 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13</t>
+          <t>AY 02,12</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>200</v>
       </c>
       <c r="C14" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D14" t="n">
         <v>125</v>
       </c>
       <c r="E14" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G14" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H14" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I14" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1026,36 +1026,36 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>BY 12,82</t>
+          <t>AZ 02,13</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>200</v>
       </c>
       <c r="C15" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15" t="n">
         <v>125</v>
       </c>
       <c r="E15" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F15" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G15" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H15" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I15" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1067,7 +1067,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11</t>
+          <t>BY 12,82</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1101,33 +1101,33 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12</t>
+          <t>AX 02,11</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>200</v>
       </c>
       <c r="C17" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D17" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E17" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F17" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H17" t="n">
         <v>61</v>
@@ -1149,7 +1149,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13</t>
+          <t>AY 02,12</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1190,7 +1190,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>BY 12,82</t>
+          <t>AZ 02,13</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1231,20 +1231,20 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11</t>
+          <t>BY 12,82</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>200</v>
       </c>
       <c r="C20" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D20" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E20" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F20" t="n">
         <v>91</v>
@@ -1265,14 +1265,14 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12</t>
+          <t>AX 02,11</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1313,36 +1313,36 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13</t>
+          <t>AY 02,12</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>200</v>
       </c>
       <c r="C22" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D22" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E22" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H22" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I22" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1354,36 +1354,36 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>BY 12,82</t>
+          <t>AZ 02,13</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>200</v>
       </c>
       <c r="C23" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D23" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E23" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F23" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G23" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H23" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I23" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1395,48 +1395,48 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11</t>
+          <t>BY 12,82</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>200</v>
       </c>
       <c r="C24" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D24" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E24" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F24" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G24" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H24" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I24" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12</t>
+          <t>AX 02,11</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1458,14 +1458,14 @@
         <v>75</v>
       </c>
       <c r="H25" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I25" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1477,7 +1477,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13</t>
+          <t>AY 02,12</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1499,14 +1499,14 @@
         <v>75</v>
       </c>
       <c r="H26" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I26" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1518,7 +1518,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>BY 12,82</t>
+          <t>AZ 02,13</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1540,14 +1540,14 @@
         <v>75</v>
       </c>
       <c r="H27" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I27" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1559,48 +1559,48 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11</t>
+          <t>BY 12,82</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>200</v>
       </c>
       <c r="C28" t="n">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D28" t="n">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E28" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F28" t="n">
         <v>90</v>
       </c>
       <c r="G28" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H28" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I28" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12</t>
+          <t>AX 02,11</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1641,7 +1641,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13</t>
+          <t>AY 02,12</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1682,7 +1682,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>BY 12,82</t>
+          <t>AZ 02,13</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1715,6 +1715,47 @@
         </is>
       </c>
       <c r="K31" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>BY 12,82</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>200</v>
+      </c>
+      <c r="C32" t="n">
+        <v>146</v>
+      </c>
+      <c r="D32" t="n">
+        <v>127</v>
+      </c>
+      <c r="E32" t="n">
+        <v>108</v>
+      </c>
+      <c r="F32" t="n">
+        <v>90</v>
+      </c>
+      <c r="G32" t="n">
+        <v>76</v>
+      </c>
+      <c r="H32" t="n">
+        <v>62</v>
+      </c>
+      <c r="I32" t="n">
+        <v>47</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
